--- a/Gestion GImnasio Ajuma Traingin center/clientes_ganancias.xlsx
+++ b/Gestion GImnasio Ajuma Traingin center/clientes_ganancias.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Clientes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -129,13 +129,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -154,18 +154,18 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Clientes'!$G$5</f>
+              <f>'Clientes'!$G$4</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Clientes'!$H$5</f>
+              <f>'Clientes'!$H$4</f>
             </numRef>
           </val>
         </ser>
@@ -182,8 +182,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -209,8 +209,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -236,12 +236,12 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -251,9 +251,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -551,13 +551,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -669,14 +679,14 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Ganancia Mensual Total:</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
+    <row r="4">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>54000</v>
       </c>
     </row>
   </sheetData>
